--- a/psggConverter/psggConverterLib/sm2/InsertCodeControl.xlsx
+++ b/psggConverter/psggConverterLib/sm2/InsertCodeControl.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4619AF-DFBC-4AFD-BCB4-14E1B153C9CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABFAAFC-0997-4B6F-B97D-8A2EFC323BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="50" r:id="rId14"/>
-    <sheet name="setting.ini" sheetId="49" r:id="rId13"/>
-    <sheet name="template-statefunc" sheetId="48" r:id="rId12"/>
-    <sheet name="template-source" sheetId="47" r:id="rId11"/>
-    <sheet name="config" sheetId="46" r:id="rId10"/>
+    <sheet name="help" sheetId="55" r:id="rId2"/>
+    <sheet name="setting.ini" sheetId="54" r:id="rId3"/>
+    <sheet name="template-statefunc" sheetId="53" r:id="rId4"/>
+    <sheet name="template-source" sheetId="52" r:id="rId5"/>
+    <sheet name="config" sheetId="51" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -385,7 +384,7 @@
     <t>100002</t>
   </si>
   <si>
-    <t>; The setting was created automatically. 2018/09/25 2:06:25
+    <t>; The setting was created automatically. 2018/09/25 2:19:42
 ; * pssgEditor version : 0.10.32219.no hash because of debug
 psggfile=@@@
 InsertCodeControl.psgg
@@ -446,73 +445,17 @@
 ::
 using System;
 public partial class InsertCodeControl : StateManager {
-    public override void Start()
+    public void Start()
     {
         Goto(S_START);
     }
-    public override bool IsEnd()     
+    public bool IsEnd()     
     { 
         return CheckState(S_END); 
     }
     $contents2$
 }</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>; The setting was created automatically. 2018/09/25 2:08:57
-; * pssgEditor version : 0.10.32219.no hash because of debug
-psggfile=@@@
-InsertCodeControl.psgg
-@@@
-xlsfile=@@@
-InsertCodeControl.xlsx
-@@@
-guid=@@@
-3cdbf216-0b1c-41be-b7c2-b027ae58b835
-@@@
-bitmap_width=5000
-bitmap_height=2000
-c_statec_cmt=1
-c_thumbnail=1
-c_contents=1
-force_display_outpin=0
-last_action=@@@
-Initilized
-@@@
-target_pathdir=@@@
-/
-@@@
-state_location_list=@@@
-@@@
-fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":774,"y":128}}]}]
-@@@
-linecolor_data=@@@
-[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
-@@@
-use_external_command=0
-external_command=@@@
-@@@
-source_editor=@@@
-"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
-@@@
-label_show=0
-label_text=@@@
-test
-@@@
-option_delete_thisstring=1
-option_delete_br_string=1
-option_delete_bracket_string=1
-option_delete_s_state_string=1
-font_name=@@@
-MS UI Gothic
-@@@
-font_size=11
-state_width=140
-state_height=20
-comment_block_height=45
-line_space=-1
-</t>
   </si>
 </sst>
 </file>
@@ -593,13 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519242"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038484"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -615,43 +558,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778863"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817347"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038484"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499069185461"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038484"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39991454817347"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038484"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,80 +640,80 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1070,11 +1013,11 @@
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="15.625" style="17"/>
-    <col min="3" max="3" width="26.875" style="17" customWidth="true"/>
+    <col min="3" max="3" width="26.875" style="17" customWidth="1"/>
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="144.75" customHeight="true">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1083,7 +1026,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" s="4" customFormat="true">
+    <row r="2" spans="1:5" s="4" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1098,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="true">
+    <row r="3" spans="1:5" s="7" customFormat="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -1109,7 +1052,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" s="7" customFormat="true">
+    <row r="4" spans="1:5" s="7" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -1120,7 +1063,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" s="9" customFormat="true" ht="18.75" customHeight="true">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>2</v>
@@ -1131,14 +1074,14 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" s="11" customFormat="true">
+    <row r="6" spans="1:5" s="11" customFormat="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" s="11" customFormat="true">
+    <row r="7" spans="1:5" s="11" customFormat="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>25</v>
@@ -1147,14 +1090,14 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" s="11" customFormat="true">
+    <row r="8" spans="1:5" s="11" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" s="11" customFormat="true">
+    <row r="9" spans="1:5" s="11" customFormat="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>26</v>
@@ -1163,21 +1106,21 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" s="11" customFormat="true">
+    <row r="10" spans="1:5" s="11" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" s="11" customFormat="true">
+    <row r="11" spans="1:5" s="11" customFormat="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" s="11" customFormat="true" ht="18.75" customHeight="true">
+    <row r="12" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -1186,7 +1129,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" s="11" customFormat="true">
+    <row r="13" spans="1:5" s="11" customFormat="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -1195,7 +1138,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" s="11" customFormat="true">
+    <row r="14" spans="1:5" s="11" customFormat="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -1204,14 +1147,14 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" s="11" customFormat="true">
+    <row r="15" spans="1:5" s="11" customFormat="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" s="11" customFormat="true" ht="18.75" customHeight="true">
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>12</v>
@@ -1220,7 +1163,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" s="11" customFormat="true">
+    <row r="17" spans="1:5" s="11" customFormat="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>13</v>
@@ -1229,14 +1172,14 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" s="11" customFormat="true">
+    <row r="18" spans="1:5" s="11" customFormat="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" s="11" customFormat="true">
+    <row r="19" spans="1:5" s="11" customFormat="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
@@ -1245,7 +1188,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" s="11" customFormat="true">
+    <row r="20" spans="1:5" s="11" customFormat="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>15</v>
@@ -1254,14 +1197,14 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" s="11" customFormat="true">
+    <row r="21" spans="1:5" s="11" customFormat="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" s="11" customFormat="true">
+    <row r="22" spans="1:5" s="11" customFormat="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>8</v>
@@ -1270,7 +1213,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" s="11" customFormat="true">
+    <row r="23" spans="1:5" s="11" customFormat="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>9</v>
@@ -1279,14 +1222,14 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" s="11" customFormat="true">
+    <row r="24" spans="1:5" s="11" customFormat="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" s="13" customFormat="true">
+    <row r="25" spans="1:5" s="13" customFormat="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
         <v>3</v>
@@ -1295,7 +1238,7 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" s="13" customFormat="true">
+    <row r="26" spans="1:5" s="13" customFormat="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
         <v>27</v>
@@ -1304,7 +1247,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" s="15" customFormat="true" ht="18.75" customHeight="true">
+    <row r="27" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14" t="s">
         <v>7</v>
@@ -1313,13 +1256,13 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" s="16" customFormat="true"/>
-    <row r="29" s="16" customFormat="true">
+    <row r="28" spans="1:5" s="16" customFormat="1"/>
+    <row r="29" spans="1:5" s="16" customFormat="1">
       <c r="B29" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" s="16" customFormat="true">
+    <row r="30" spans="1:5" s="16" customFormat="1">
       <c r="B30" s="16" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +1273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" s="16" customFormat="true">
+    <row r="31" spans="1:5" s="16" customFormat="1">
       <c r="B31" s="16" t="s">
         <v>17</v>
       </c>
@@ -1348,72 +1291,98 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.5">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/psggConverter/psggConverterLib/sm2/InsertCodeControl.xlsx
+++ b/psggConverter/psggConverterLib/sm2/InsertCodeControl.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABFAAFC-0997-4B6F-B97D-8A2EFC323BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="55" r:id="rId2"/>
-    <sheet name="setting.ini" sheetId="54" r:id="rId3"/>
-    <sheet name="template-statefunc" sheetId="53" r:id="rId4"/>
-    <sheet name="template-source" sheetId="52" r:id="rId5"/>
-    <sheet name="config" sheetId="51" r:id="rId6"/>
+    <sheet name="help" sheetId="168" r:id="rId122"/>
+    <sheet name="setting.ini" sheetId="167" r:id="rId121"/>
+    <sheet name="template-statefunc" sheetId="166" r:id="rId120"/>
+    <sheet name="template-source" sheetId="165" r:id="rId119"/>
+    <sheet name="config" sheetId="164" r:id="rId118"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="222">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -456,6 +457,1836 @@
     $contents2$
 }</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S_READSRC</t>
+  </si>
+  <si>
+    <t>44,24</t>
+  </si>
+  <si>
+    <t>1011,767</t>
+  </si>
+  <si>
+    <t>(bitmap)</t>
+  </si>
+  <si>
+    <t>対象ソース読み込み
+改行コード保持</t>
+  </si>
+  <si>
+    <t>S_CHECK_EXIST_NEXTLINE</t>
+  </si>
+  <si>
+    <t>/
+(100,100)
+</t>
+  </si>
+  <si>
+    <t>54,257</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>S_FIND_STARTMARK</t>
+  </si>
+  <si>
+    <t>開始マークを探す</t>
+  </si>
+  <si>
+    <t>int m_mark_start;
+int m_mark_end;</t>
+  </si>
+  <si>
+    <t>m_mark_start=-1;
+m_mark_end=-1;</t>
+  </si>
+  <si>
+    <t>brif(S_FIND_ENDMARK);
+brelse(S_SAVE);</t>
+  </si>
+  <si>
+    <t>m_mark_start&gt;=0
+?</t>
+  </si>
+  <si>
+    <t>472,266</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>次の行があるか？</t>
+  </si>
+  <si>
+    <t>265,264</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>I_LINES</t>
+  </si>
+  <si>
+    <t>読み込みソース</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List&lt;string&gt; m_lines; </t>
+  </si>
+  <si>
+    <t>304,37</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>I_BREAKLINE</t>
+  </si>
+  <si>
+    <t>改行コード</t>
+  </si>
+  <si>
+    <t>string m_bl;</t>
+  </si>
+  <si>
+    <t>480,38</t>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t>I_CURLINENUM</t>
+  </si>
+  <si>
+    <t>現在の読み込み行</t>
+  </si>
+  <si>
+    <t>int m_cur;</t>
+  </si>
+  <si>
+    <t>653,37</t>
+  </si>
+  <si>
+    <t>100008</t>
+  </si>
+  <si>
+    <t>S_FIND_ENDMARK</t>
+  </si>
+  <si>
+    <t>終了マークを探す</t>
+  </si>
+  <si>
+    <t>brif(S_GET_PARAM);
+brelse(S_ERORR_NO_ENDMARK);</t>
+  </si>
+  <si>
+    <t>m_mark_end&gt;=0
+?</t>
+  </si>
+  <si>
+    <t>709,263</t>
+  </si>
+  <si>
+    <t>100009</t>
+  </si>
+  <si>
+    <t>S_SAVE</t>
+  </si>
+  <si>
+    <t>ファイルセーブ</t>
+  </si>
+  <si>
+    <t>300,719</t>
+  </si>
+  <si>
+    <t>100010</t>
+  </si>
+  <si>
+    <t>S_ERORR_NO_ENDMARK</t>
+  </si>
+  <si>
+    <t>エンドマークがない！
+エラー</t>
+  </si>
+  <si>
+    <t>784,567</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t>S_GET_PARAM</t>
+  </si>
+  <si>
+    <t>開始マークの行からパラメータを収集する</t>
+  </si>
+  <si>
+    <t>int indent=4;
+string m_command;</t>
+  </si>
+  <si>
+    <t>brif(S_CONVERT);
+brelse(S_ERORR_CONVERT);</t>
+  </si>
+  <si>
+    <t>!is_null(m_command)
+?</t>
+  </si>
+  <si>
+    <t>986,266</t>
+  </si>
+  <si>
+    <t>100012</t>
+  </si>
+  <si>
+    <t>S_CONVERT</t>
+  </si>
+  <si>
+    <t>コンバートする</t>
+  </si>
+  <si>
+    <t>string m_outbuf;
+string m_error;</t>
+  </si>
+  <si>
+    <t>1215,262</t>
+  </si>
+  <si>
+    <t>100013</t>
+  </si>
+  <si>
+    <t>I_NULLSTR</t>
+  </si>
+  <si>
+    <t>文字列NULLチェック</t>
+  </si>
+  <si>
+    <t>bool is_null(string s)
+{
+    return string.IsNullOrEmpty(s);
+}</t>
+  </si>
+  <si>
+    <t>850,41</t>
+  </si>
+  <si>
+    <t>100014</t>
+  </si>
+  <si>
+    <t>S_ERORR_CONVERT</t>
+  </si>
+  <si>
+    <t>コンバートエラー</t>
+  </si>
+  <si>
+    <t>1324,524</t>
+  </si>
+  <si>
+    <t>100015</t>
+  </si>
+  <si>
+    <t>S_INSERT</t>
+  </si>
+  <si>
+    <t>開始マークと終了マークの間に結果を挿入する。</t>
+  </si>
+  <si>
+    <t>1436,257</t>
+  </si>
+  <si>
+    <t>100016</t>
+  </si>
+  <si>
+    <t>S_ERORR_PARAM</t>
+  </si>
+  <si>
+    <t>パラメータエラー</t>
+  </si>
+  <si>
+    <t>1044,490</t>
+  </si>
+  <si>
+    <t>100017</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 9:48:14
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1011,"y":767}},{"Key":"S_END1","Value":{"x":1035,"y":163}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":338,"y":166}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":300,"y":719}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1215,"y":262}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1324,"y":524}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1436,"y":257}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>1403,801</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>brif(S_FIND_STARTMARK);
+brelse(S_SAVE);</t>
+  </si>
+  <si>
+    <t>m_cur&lt;m_lines.Count
+?</t>
+  </si>
+  <si>
+    <t>452,760</t>
+  </si>
+  <si>
+    <t>brif(S_CONVERT);
+brelse(S_ERORR_PARAM);</t>
+  </si>
+  <si>
+    <t>brif(S_INSERT);
+brelse(S_ERORR_CONVERT2);</t>
+  </si>
+  <si>
+    <t>!is_null(m_error)
+?</t>
+  </si>
+  <si>
+    <t>1218,202</t>
+  </si>
+  <si>
+    <t>I_NULLCHECK</t>
+  </si>
+  <si>
+    <t>1463,565</t>
+  </si>
+  <si>
+    <t>S_NEXT</t>
+  </si>
+  <si>
+    <t>1432,214</t>
+  </si>
+  <si>
+    <t>S_ERORR_CONVERT2</t>
+  </si>
+  <si>
+    <t>new state</t>
+  </si>
+  <si>
+    <t>1445,376</t>
+  </si>
+  <si>
+    <t>100018</t>
+  </si>
+  <si>
+    <t>次へ</t>
+  </si>
+  <si>
+    <t>m_cur = m_mark_end + 1;</t>
+  </si>
+  <si>
+    <t>1725,278</t>
+  </si>
+  <si>
+    <t>100019</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 9:56:34
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1403,"y":801}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":338,"y":166}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":452,"y":760}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1463,"y":565}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":850,"y":41}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 9:57:01
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1403,"y":801}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":338,"y":166}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":452,"y":760}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1463,"y":565}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":850,"y":41}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>:output=InsertCodeControl_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+using System;
+using System.Collections.Generic;
+public partial class InsertCodeControl : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    public bool IsEnd()     
+    { 
+        return CheckState(S_END); 
+    }
+    $contents2$
+}</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 9:57:57
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1403,"y":801}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":338,"y":166}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":452,"y":760}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1463,"y":565}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":850,"y":41}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 9:59:14
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Changed an arrow direction
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1403,"y":801}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":338,"y":166}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":452,"y":760}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1463,"y":565}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":850,"y":41}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 9:59:19
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Changed an arrow direction
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1403,"y":801}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":338,"y":166}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":452,"y":760}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1463,"y":565}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":850,"y":41}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>string m_src;</t>
+  </si>
+  <si>
+    <t>m_cur = 0;
+m_src = File.ReadAllText();
+m_lines = StringUtil.SplitTrimEnd(m_src);</t>
+  </si>
+  <si>
+    <t>496,786</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 10:03:27
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1403,"y":801}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":338,"y":166}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1463,"y":565}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":850,"y":41}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>brif(S_CHECK_EXIST_NEXTLINE);
+brelse(S_ERROR_READ);</t>
+  </si>
+  <si>
+    <t>!is_null(m_src)
+?</t>
+  </si>
+  <si>
+    <t>S_ERROR_READ</t>
+  </si>
+  <si>
+    <t>リードエラー</t>
+  </si>
+  <si>
+    <t>169,639</t>
+  </si>
+  <si>
+    <t>100020</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 10:06:40
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Changed an arrow direction
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1403,"y":801}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1463,"y":565}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":850,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>1720,753</t>
+  </si>
+  <si>
+    <t>m_cur = 0;
+read_file();</t>
+  </si>
+  <si>
+    <t>m_lines!=null
+?</t>
+  </si>
+  <si>
+    <t>835,41</t>
+  </si>
+  <si>
+    <t>I_READFILE</t>
+  </si>
+  <si>
+    <t>ソース読み込み</t>
+  </si>
+  <si>
+    <t>1170,41</t>
+  </si>
+  <si>
+    <t>100021</t>
+  </si>
+  <si>
+    <t>I_FILEPATH</t>
+  </si>
+  <si>
+    <t>ファイルパス</t>
+  </si>
+  <si>
+    <t>public string m_filepath;</t>
+  </si>
+  <si>
+    <t>1014,40</t>
+  </si>
+  <si>
+    <t>100022</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 10:26:19
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1720,"y":753}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1463,"y":565}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":1170,"y":41}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1014,"y":40}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 10:28:14
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1720,"y":753}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1463,"y":565}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":1170,"y":41}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1014,"y":40}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>brif(S_INSERT);
+brelse(S_ERORR_CONVERT);</t>
+  </si>
+  <si>
+    <t>1476,431</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 11:12:01
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1720,"y":753}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1476,"y":431}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":1170,"y":41}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1014,"y":40}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>:output=InsertCodeControl_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+using System;
+using System.Collections.Generic;
+using System.IO
+public partial class InsertCodeControl : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    public bool IsEnd()     
+    { 
+        return CheckState(S_END); 
+    }
+    $contents2$
+}</t>
+  </si>
+  <si>
+    <t>2056,48</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 11:14:49
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1720,"y":753}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1476,"y":431}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":2056,"y":48}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1014,"y":40}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>string m_outbuf;</t>
+  </si>
+  <si>
+    <t>I_ERROR</t>
+  </si>
+  <si>
+    <t>エラー用ストリング</t>
+  </si>
+  <si>
+    <t>string m_error;</t>
+  </si>
+  <si>
+    <t>1200,43</t>
+  </si>
+  <si>
+    <t>100023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void read_file()
+    {
+        try
+        {
+            m_src = File.ReadAllText(m_filepath);
+            m_bl = StringUtil.FindNewLineChar(m_src);
+            m_lines = StringUtil.SplitTrimEnd(m_src,m_bl[0]);
+        }
+        catch (SystemException e)
+        {
+            m_error = "error read_file. " + e.Message;
+        }
+    }</t>
+  </si>
+  <si>
+    <t>2019,37</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 11:22:11
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1720,"y":753}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1476,"y":431}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":2019,"y":37}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1014,"y":40}},{"Key":"I_FILEPATH1","Value":{"x":1200,"y":43}},{"Key":"I_ERROR","Value":{"x":1200,"y":43}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>1023,48</t>
+  </si>
+  <si>
+    <t>1357,46</t>
+  </si>
+  <si>
+    <t>I_MARKS</t>
+  </si>
+  <si>
+    <t>マーク文字列</t>
+  </si>
+  <si>
+    <t>public string MARK_START;
+public string MARK_END;</t>
+  </si>
+  <si>
+    <t>1583,45</t>
+  </si>
+  <si>
+    <t>100024</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 11:24:13
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1720,"y":753}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1476,"y":431}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":2019,"y":37}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_FILEPATH1","Value":{"x":1200,"y":43}},{"Key":"I_ERROR","Value":{"x":1023,"y":48}},{"Key":"I_ERROR1","Value":{"x":1645,"y":134}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>int m_indent=4;
+string m_command;</t>
+  </si>
+  <si>
+    <t>m_output = convert(m_indent, m_command);</t>
+  </si>
+  <si>
+    <t>1022,42</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 11:28:50
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Delete a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1720,"y":753}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1476,"y":431}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":2019,"y":37}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_FILEPATH1","Value":{"x":1200,"y":43}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_ERROR1","Value":{"x":1645,"y":134}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 11:29:38
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1720,"y":753}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":784,"y":567}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1476,"y":431}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1432,"y":214}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":2019,"y":37}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_FILEPATH1","Value":{"x":1200,"y":43}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_ERROR1","Value":{"x":1645,"y":134}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>1756,678</t>
+  </si>
+  <si>
+    <t>m_error = null;
+m_cur = 0;
+read_file();</t>
+  </si>
+  <si>
+    <t>is_null(m_error)
+?</t>
+  </si>
+  <si>
+    <t>m_mark_start = find_start_mark();
+</t>
+  </si>
+  <si>
+    <t>m_cur = m_mark_start + 1;
+m_mark_end = find_end_mark();
+if (m_mark_end &lt; 0) {
+    m_error = "No end mark";
+}</t>
+  </si>
+  <si>
+    <t>brif(S_GET_PARAM);
+brelse(S_ERORR);</t>
+  </si>
+  <si>
+    <t>var l = m_lines[m_mark_start];
+get_param(l);</t>
+  </si>
+  <si>
+    <t>brif(S_CONVERT);
+brelse(S_ERORR);</t>
+  </si>
+  <si>
+    <t>brif(S_INSERT);
+brelse(S_ERORR);</t>
+  </si>
+  <si>
+    <t>S_ERORR</t>
+  </si>
+  <si>
+    <t>エラー</t>
+  </si>
+  <si>
+    <t>1448,561</t>
+  </si>
+  <si>
+    <t>1482,217</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 11:57:36
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1756,"y":678}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":804,"y":578}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1448,"y":561}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1482,"y":217}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1072,"y":531}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":2019,"y":37}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_FILEPATH1","Value":{"x":1200,"y":43}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_ERROR1","Value":{"x":1645,"y":134}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}},{"Key":"S_ERORR","Value":{"x":1448,"y":561}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 12:01:10
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1756,"y":678}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":804,"y":578}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1448,"y":561}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1482,"y":217}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1072,"y":531}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":2019,"y":37}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_FILEPATH1","Value":{"x":1200,"y":43}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_ERROR1","Value":{"x":1645,"y":134}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}},{"Key":"S_ERORR","Value":{"x":1448,"y":561}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>:output=InsertCodeControl_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+using System;
+using System.Collections.Generic;
+using System.IO;
+public partial class InsertCodeControl : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    public bool IsEnd()     
+    { 
+        return CheckState(S_END); 
+    }
+    $contents2$
+}</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 12:01:59
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1756,"y":678}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":804,"y":578}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1448,"y":561}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1482,"y":217}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1072,"y":531}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":2019,"y":37}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_FILEPATH1","Value":{"x":1200,"y":43}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_ERROR1","Value":{"x":1645,"y":134}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}},{"Key":"S_ERORR","Value":{"x":1448,"y":561}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>string m_output;</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 12:02:38
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1756,"y":678}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":804,"y":578}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1448,"y":561}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1482,"y":217}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1072,"y":531}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":2019,"y":37}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_FILEPATH1","Value":{"x":1200,"y":43}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_ERROR1","Value":{"x":1645,"y":134}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}},{"Key":"S_ERORR","Value":{"x":1448,"y":561}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>throw new SystemException(m_error);</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 13:48:15
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1756,"y":678}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":496,"y":786}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":804,"y":578}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1448,"y":561}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1482,"y":217}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1072,"y":531}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":169,"y":639}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":2019,"y":37}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_FILEPATH1","Value":{"x":1200,"y":43}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_ERROR1","Value":{"x":1645,"y":134}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}},{"Key":"S_ERORR","Value":{"x":1448,"y":561}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>brif(S_CHECK_EXIST_NEXTLINE);
+brelse(S_ERORR);</t>
+  </si>
+  <si>
+    <t>save();</t>
+  </si>
+  <si>
+    <t>796,782</t>
+  </si>
+  <si>
+    <t>insert_output();</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 14:42:20
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1756,"y":678}},{"Key":"S_END1","Value":{"x":1648,"y":211}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_READSRC1","Value":{"x":169,"y":639}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_LINES1","Value":{"x":333,"y":196}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_BREAKLINE1","Value":{"x":361,"y":218}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_STARTMARK1","Value":{"x":686,"y":275}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_ERROR","Value":{"x":140,"y":539}},{"Key":"S_SAVE","Value":{"x":796,"y":782}},{"Key":"S_SAVE1","Value":{"x":870,"y":517}},{"Key":"S_ERORR_NO_ENDMARK","Value":{"x":804,"y":578}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_GET_PARAM1","Value":{"x":892,"y":62}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"I_NULLSTR","Value":{"x":850,"y":41}},{"Key":"S_ERORR_NO_ENDMARK1","Value":{"x":1134,"y":495}},{"Key":"S_ERORR_CONVERT","Value":{"x":1448,"y":561}},{"Key":"S_CONVERT1","Value":{"x":1471,"y":277}},{"Key":"S_INSERT","Value":{"x":1482,"y":217}},{"Key":"S_ERORR_CONVERT1","Value":{"x":1044,"y":490}},{"Key":"S_ERORR_PARAM","Value":{"x":1072,"y":531}},{"Key":"S_ERORR_CONVERT2","Value":{"x":1445,"y":376}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"S_ERROR_READ","Value":{"x":220,"y":643}},{"Key":"I_NULLCHECK1","Value":{"x":1054,"y":54}},{"Key":"I_READFILE","Value":{"x":2019,"y":37}},{"Key":"I_READFILE1","Value":{"x":1267,"y":502}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_FILEPATH1","Value":{"x":1200,"y":43}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_ERROR1","Value":{"x":1645,"y":134}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}},{"Key":"S_ERORR","Value":{"x":1448,"y":561}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=30
+line_space=-1
+</t>
   </si>
 </sst>
 </file>
@@ -536,13 +2367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -558,43 +2389,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
+        <fgColor theme="4" tint="0.39991454817347"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.1499069185461"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39991454817346722"/>
+        <fgColor theme="7" tint="0.39991454817347"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,80 +2471,80 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" shrinkToFit="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1001,7 +2832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
@@ -1013,11 +2844,11 @@
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="15.625" style="17"/>
-    <col min="3" max="3" width="26.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="17" customWidth="true"/>
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" s="2" customFormat="true" ht="144.75" customHeight="true">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1025,8 +2856,71 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1">
+    <row r="2" s="4" customFormat="true">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1040,8 +2934,71 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1">
+    <row r="3" s="7" customFormat="true">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -1051,8 +3008,71 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
+      <c r="F3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1">
+    <row r="4" s="7" customFormat="true">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -1063,25 +3083,55 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" s="9" customFormat="true" ht="18.75" customHeight="true">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="N5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1">
+    <row r="6" s="11" customFormat="true">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="11" customFormat="1">
+    <row r="7" s="11" customFormat="true">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>25</v>
@@ -1089,15 +3139,39 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
+      <c r="I7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z7" s="17" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" s="11" customFormat="1">
+    <row r="8" s="11" customFormat="true">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" s="11" customFormat="1">
+    <row r="9" s="11" customFormat="true">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>26</v>
@@ -1105,22 +3179,37 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
+      <c r="F9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" s="11" customFormat="1">
+    <row r="10" s="11" customFormat="true">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" s="11" customFormat="1">
+    <row r="11" s="11" customFormat="true">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="12" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -1128,8 +3217,35 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
+      <c r="F12" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" s="11" customFormat="1">
+    <row r="13" s="11" customFormat="true">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -1138,7 +3254,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" s="11" customFormat="1">
+    <row r="14" s="11" customFormat="true">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -1147,14 +3263,14 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" s="11" customFormat="1">
+    <row r="15" s="11" customFormat="true">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="16" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>12</v>
@@ -1163,7 +3279,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1">
+    <row r="17" s="11" customFormat="true">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>13</v>
@@ -1172,14 +3288,14 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1">
+    <row r="18" s="11" customFormat="true">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1">
+    <row r="19" s="11" customFormat="true">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
@@ -1188,7 +3304,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1">
+    <row r="20" s="11" customFormat="true">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>15</v>
@@ -1197,14 +3313,14 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1">
+    <row r="21" s="11" customFormat="true">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1">
+    <row r="22" s="11" customFormat="true">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>8</v>
@@ -1213,7 +3329,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1">
+    <row r="23" s="11" customFormat="true">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>9</v>
@@ -1222,14 +3338,14 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1">
+    <row r="24" s="11" customFormat="true">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" s="13" customFormat="1">
+    <row r="25" s="13" customFormat="true">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
         <v>3</v>
@@ -1237,8 +3353,26 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
+      <c r="F25" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" s="13" customFormat="1">
+    <row r="26" s="13" customFormat="true">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
         <v>27</v>
@@ -1246,8 +3380,26 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
+      <c r="F26" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
+    <row r="27" s="15" customFormat="true" ht="18.75" customHeight="true">
       <c r="A27" s="14"/>
       <c r="B27" s="14" t="s">
         <v>7</v>
@@ -1256,24 +3408,150 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" s="16" customFormat="1"/>
-    <row r="29" spans="1:5" s="16" customFormat="1">
+    <row r="28" s="16" customFormat="true"/>
+    <row r="29" s="16" customFormat="true">
       <c r="B29" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="F29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="U29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="X29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z29" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" s="16" customFormat="1">
+    <row r="30" s="16" customFormat="true">
       <c r="B30" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="R30" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="S30" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="T30" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="U30" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="V30" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="W30" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="X30" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y30" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z30" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="16" customFormat="1">
+    <row r="31" s="16" customFormat="true">
       <c r="B31" s="16" t="s">
         <v>17</v>
       </c>
@@ -1282,6 +3560,69 @@
       </c>
       <c r="E31" s="16" t="s">
         <v>33</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="U31" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="V31" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="W31" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="X31" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y31" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z31" s="17" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1291,98 +3632,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>35</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/psggConverter/psggConverterLib/sm2/InsertCodeControl.xlsx
+++ b/psggConverter/psggConverterLib/sm2/InsertCodeControl.xlsx
@@ -9,11 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="168" r:id="rId122"/>
-    <sheet name="setting.ini" sheetId="167" r:id="rId121"/>
-    <sheet name="template-statefunc" sheetId="166" r:id="rId120"/>
-    <sheet name="template-source" sheetId="165" r:id="rId119"/>
-    <sheet name="config" sheetId="164" r:id="rId118"/>
+    <sheet name="itemsinfo" sheetId="192" r:id="rId146"/>
+    <sheet name="help" sheetId="191" r:id="rId145"/>
+    <sheet name="setting.ini" sheetId="190" r:id="rId144"/>
+    <sheet name="template-statefunc" sheetId="189" r:id="rId143"/>
+    <sheet name="template-source" sheetId="188" r:id="rId142"/>
+    <sheet name="config" sheetId="187" r:id="rId141"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="233">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -2286,6 +2287,367 @@
 state_height=20
 comment_block_height=30
 line_space=-1
+</t>
+  </si>
+  <si>
+    <t>I_BOM</t>
+  </si>
+  <si>
+    <t>BOMの有無</t>
+  </si>
+  <si>
+    <t>bool m_bom = false;</t>
+  </si>
+  <si>
+    <t>481,127</t>
+  </si>
+  <si>
+    <t>100025</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2020/07/26 10:40:31
+; * pssgEditor version : 0.65.30181.c1f731a61c084a50af056af301b5a2c33505b45f
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+varied,Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1756,"y":678}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_SAVE","Value":{"x":796,"y":782}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"S_INSERT","Value":{"x":1482,"y":217}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}},{"Key":"S_ERORR","Value":{"x":1448,"y":561}},{"Key":"E_READSRC","Value":{"x":481.199951,"y":127.2}},{"Key":"I_BOM","Value":{"x":481.199951,"y":127.2}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor_set=@@@
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_ignore_case_of_state=0
+option_editbranch_automode=0
+option_use_custom_prefix=1
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+state_short_width=50
+state_short_height=20
+comment_block_height=30
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+itemeditform_size_list=@@@
+@@@
+decoimage_typ_name=@@@
+sym
+@@@
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2020/07/26 10:40:47
+; * pssgEditor version : 0.65.30181.c1f731a61c084a50af056af301b5a2c33505b45f
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+init,Saved
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1756,"y":678}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_SAVE","Value":{"x":796,"y":782}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"S_INSERT","Value":{"x":1482,"y":217}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}},{"Key":"S_ERORR","Value":{"x":1448,"y":561}},{"Key":"E_READSRC","Value":{"x":481.199951,"y":127.2}},{"Key":"I_BOM","Value":{"x":481,"y":127}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor_set=@@@
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_ignore_case_of_state=0
+option_editbranch_automode=0
+option_use_custom_prefix=1
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+state_short_width=50
+state_short_height=20
+comment_block_height=30
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+itemeditform_size_list=@@@
+@@@
+decoimage_typ_name=@@@
+sym
+@@@
+</t>
+  </si>
+  <si>
+    <t>Encoding m_enc = Encoding.UTF8;</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2020/07/26 11:24:57
+; * pssgEditor version : 0.65.30181.c1f731a61c084a50af056af301b5a2c33505b45f
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+varied,Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1756,"y":678}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_SAVE","Value":{"x":796,"y":782}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"S_INSERT","Value":{"x":1482,"y":217}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}},{"Key":"S_ERORR","Value":{"x":1448,"y":561}},{"Key":"E_READSRC","Value":{"x":481.199951,"y":127.2}},{"Key":"I_BOM","Value":{"x":481,"y":127}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor_set=@@@
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_ignore_case_of_state=0
+option_editbranch_automode=0
+option_use_custom_prefix=1
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+state_short_width=50
+state_short_height=20
+comment_block_height=30
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+itemeditform_size_list=@@@
+@@@
+decoimage_typ_name=@@@
+sym
+@@@
+</t>
+  </si>
+  <si>
+    <t>System.Text.Encoding m_enc = System.Text.Encoding.UTF8;</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2020/07/26 11:27:09
+; * pssgEditor version : 0.65.30181.c1f731a61c084a50af056af301b5a2c33505b45f
+psggfile=@@@
+InsertCodeControl.psgg
+@@@
+xlsfile=@@@
+InsertCodeControl.xlsx
+@@@
+guid=@@@
+3cdbf216-0b1c-41be-b7c2-b027ae58b835
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+varied,Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":24}},{"Key":"S_END","Value":{"x":1756,"y":678}},{"Key":"S_READSRC","Value":{"x":54,"y":257}},{"Key":"S_FIND_STARTMARK","Value":{"x":472,"y":266}},{"Key":"S_CHECK_EXIST_NEXTLINE","Value":{"x":265,"y":264}},{"Key":"I_LINES","Value":{"x":304,"y":37}},{"Key":"I_BREAKLINE","Value":{"x":480,"y":38}},{"Key":"I_CURLINENUM","Value":{"x":653,"y":37}},{"Key":"S_FIND_ENDMARK","Value":{"x":709,"y":263}},{"Key":"S_SAVE","Value":{"x":796,"y":782}},{"Key":"S_GET_PARAM","Value":{"x":986,"y":266}},{"Key":"S_CONVERT","Value":{"x":1218,"y":202}},{"Key":"S_INSERT","Value":{"x":1482,"y":217}},{"Key":"S_NEXT","Value":{"x":1725,"y":278}},{"Key":"I_NULLCHECK","Value":{"x":835,"y":41}},{"Key":"I_FILEPATH","Value":{"x":1357,"y":46}},{"Key":"I_ERROR","Value":{"x":1022,"y":42}},{"Key":"I_MARKS","Value":{"x":1583,"y":45}},{"Key":"S_ERORR","Value":{"x":1448,"y":561}},{"Key":"E_READSRC","Value":{"x":481.199951,"y":127.2}},{"Key":"I_BOM","Value":{"x":481,"y":127}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor_set=@@@
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_ignore_case_of_state=0
+option_editbranch_automode=0
+option_use_custom_prefix=1
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+state_short_width=50
+state_short_height=20
+comment_block_height=30
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+itemeditform_size_list=@@@
+@@@
+decoimage_typ_name=@@@
+sym
+@@@
 </t>
   </si>
 </sst>
@@ -2880,8 +3242,8 @@
       <c r="M1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>116</v>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>39</v>
@@ -2958,8 +3320,8 @@
       <c r="M2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>116</v>
+      <c r="N2" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>85</v>
@@ -3032,8 +3394,8 @@
       <c r="M3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>116</v>
+      <c r="N3" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>86</v>
@@ -3147,6 +3509,9 @@
       </c>
       <c r="K7" s="17" t="s">
         <v>68</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="Q7" s="17" t="s">
         <v>99</v>
@@ -3437,8 +3802,8 @@
       <c r="M29" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="17" t="s">
-        <v>116</v>
+      <c r="N29" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="O29" s="17" t="s">
         <v>42</v>
@@ -3511,8 +3876,8 @@
       <c r="M30" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="N30" s="17" t="s">
-        <v>116</v>
+      <c r="N30" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="O30" s="17" t="s">
         <v>90</v>
@@ -3585,8 +3950,8 @@
       <c r="M31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="N31" s="17" t="s">
-        <v>116</v>
+      <c r="N31" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="O31" s="17" t="s">
         <v>91</v>
@@ -3632,21 +3997,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3660,7 +4025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3674,7 +4039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3688,7 +4053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3700,4 +4065,18 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>